--- a/individual_results/harvard/503.xlsx
+++ b/individual_results/harvard/503.xlsx
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0.2</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -599,11 +599,9 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6666666666666667</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.6666666666666667</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
         <v>0.3333333333333334</v>
       </c>
@@ -643,11 +641,9 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.111111111111111</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.111111111111111</v>
-      </c>
+        <v>0.625</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
         <v>0.5555555555555556</v>
       </c>
@@ -687,10 +683,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.430676558073393</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8868528072345416</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0.5</v>
@@ -782,7 +778,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -828,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -873,9 +869,7 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
-        <v>3</v>
-      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
         <v>3</v>
       </c>
@@ -915,7 +909,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
